--- a/video_processing/Results/Results.xlsx
+++ b/video_processing/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/Documents/GitHub/FYP/video_processing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA844B8-85AA-C743-96F8-F9BB293FC048}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CC0FA-1086-224D-9DA2-D24EA94409CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B2886-9CEA-EB47-8CE1-784C853E42E5}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1128,7 @@
         <v>0.76910000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1152,15 +1152,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.17717206132878999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>22051.063179335699</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.107883817427385</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.49523809523809498</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.60650000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1168,47 +1189,132 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.171875</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3.0854928493499698</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.108108108108108</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.419047619047619</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.65449999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.181196581196581</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.1968860626220703</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.110416666666666</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.50476190476190397</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.60980000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.159453302961275</v>
+      </c>
+      <c r="F43" s="1">
+        <v>12.164490699768001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8.66336633663366E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9.9199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.159509202453987</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.41710071906409402</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.6738949124270201E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.99047619047618995</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.1081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1232,15 +1338,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.17391304347826</v>
+      </c>
+      <c r="F50" s="1">
+        <v>26963.781390972999</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.105476673427991</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.49523809523809498</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.59760000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1256,39 +1383,123 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.18211920529801301</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.8960175514221098</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.110220440881763</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.59760000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.17153996101364499</v>
+      </c>
+      <c r="F54" s="1">
+        <v>7.7334275245666504</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.10784313725490099</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.419047619047619</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.65369999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.158610271903323</v>
+      </c>
+      <c r="F55" s="1">
+        <v>14.300644874572701</v>
+      </c>
+      <c r="G55" s="1">
+        <v>8.6136177194421598E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
       <c r="B56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.158295281582952</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.39977813575583798</v>
+      </c>
+      <c r="G56" s="1">
+        <v>8.6021505376343996E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.99047619047618995</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1296,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1304,7 +1515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1312,7 +1523,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>23</v>
       </c>

--- a/video_processing/Results/Results.xlsx
+++ b/video_processing/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/Documents/GitHub/FYP/video_processing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CC0FA-1086-224D-9DA2-D24EA94409CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D790361-7DC7-6649-913B-C91492040DBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16340" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B2886-9CEA-EB47-8CE1-784C853E42E5}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,28 +716,91 @@
         <v>0.58130000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.20465116279069701</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.3564642330188898E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13538461538461499</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.419047619047619</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.72109999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.20736698499317799</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.66670846939086903</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.121019108280254</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.72380952380952301</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.54469999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.15730337078651599</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.5365853658536495E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.91459999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">

--- a/video_processing/Results/Results.xlsx
+++ b/video_processing/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/Documents/GitHub/FYP/video_processing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D790361-7DC7-6649-913B-C91492040DBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EF71F-6BF1-E34C-8A6D-F208ED52079F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B2886-9CEA-EB47-8CE1-784C853E42E5}">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/video_processing/Results/Results.xlsx
+++ b/video_processing/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/Documents/GitHub/FYP/video_processing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EF71F-6BF1-E34C-8A6D-F208ED52079F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9CFCE3-0241-894F-AEE4-E000143A212A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/video_processing/Results/Results.xlsx
+++ b/video_processing/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eren/Documents/GitHub/FYP/video_processing/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9CFCE3-0241-894F-AEE4-E000143A212A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3CDDF-EB60-B841-BB9D-07D5BFE35B5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{D8D5B4E2-6B7C-CD44-9B97-A290F99EBCDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="28">
   <si>
     <t>Algorithm</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>encoding dimension 2D autoencoder</t>
+  </si>
+  <si>
+    <t>Optical Flow Maxed 2x</t>
+  </si>
+  <si>
+    <t>Optical Flow Averaged 2x</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B2886-9CEA-EB47-8CE1-784C853E42E5}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1197,7 @@
         <v>0.76910000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>0.60650000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1261,7 +1267,7 @@
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1289,8 +1295,11 @@
       <c r="I41" s="1">
         <v>0.65449999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1318,8 +1327,17 @@
       <c r="I42" s="1">
         <v>0.60980000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>70</v>
+      </c>
+      <c r="P42">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1347,8 +1365,17 @@
       <c r="I43" s="1">
         <v>9.9199999999999997E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>42</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1376,8 +1403,17 @@
       <c r="I44" s="1">
         <v>0.1081</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>14</v>
+      </c>
+      <c r="P44">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q44">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1393,15 +1429,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q48">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <v>8</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1429,8 +1490,17 @@
       <c r="I50" s="1">
         <v>0.59760000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>16</v>
+      </c>
+      <c r="P50">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1438,7 +1508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1446,7 +1516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1545,7 @@
         <v>0.59760000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1574,7 @@
         <v>0.65369999999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1603,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -1570,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -1578,7 +1648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -1586,80 +1656,311 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.19409282700421901</v>
+      </c>
+      <c r="F62" s="1">
+        <v>404001.13283039402</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.124661246612466</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.43809523809523798</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.68859999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <v>70</v>
-      </c>
-      <c r="C65">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D65" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>42</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67">
+      <c r="E65" s="1">
+        <v>0.191142191142191</v>
+      </c>
+      <c r="F65" s="1">
+        <v>15.0933933258056</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.12654320987654299</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.39047619047618998</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.71709999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
         <v>14</v>
       </c>
-      <c r="C67">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D67">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
       <c r="B70" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.19367588932806301</v>
+      </c>
+      <c r="F74" s="1">
+        <v>407714.66757453402</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.12219451371571</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.66749999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.191142191142191</v>
+      </c>
+      <c r="F77" s="1">
+        <v>15.0933933258056</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.12654320987654299</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.39047619047618998</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.71709999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.19378427787934099</v>
+      </c>
+      <c r="F78" s="1">
+        <v>23.2773036956787</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.119909502262443</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.50476190476190397</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.64070000000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.15897047691142999</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2.66796875</v>
+      </c>
+      <c r="G79" s="1">
+        <v>8.63486842105263E-2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D80" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>8</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73">
+      <c r="E80" s="1">
+        <v>0.163636363636363</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.52654292480287801</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.107462686567164</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.34285714285714203</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C73">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D73">
-        <v>0.1</v>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
